--- a/Excel/matthew_berman.xlsx
+++ b/Excel/matthew_berman.xlsx
@@ -468,25 +468,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ZvvoR585458</t>
+          <t>G1GuDyy9bTo</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elon Musk Open Sources Grok! Uncensored </t>
+          <t>The Industry Reacts to DeepSeek R1 - "Be</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1306137</v>
+        <v>255901</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0:00:55</t>
+          <t>0:08:53</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -498,25 +498,25 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DlnJlG1SOZo</t>
+          <t>NFgFQO282_4</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rabbit R1: The First Personal AI AGENT D</t>
+          <t>The World Reacts to OpenAI's Unveiling o</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-01-10</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1254016</v>
+        <v>216021</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0:29:58</t>
+          <t>0:21:02</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -528,25 +528,25 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>_1Fp1A1JWT4</t>
+          <t>ZwW0RLdPVsU</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Elon Musk files BOMBSHELL LAWSUIT agains</t>
+          <t>The Industry Reacts to Grok 4!</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-03-03</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>977496</v>
+        <v>200515</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0:40:20</t>
+          <t>0:15:23</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -558,25 +558,25 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>uGOLYz2pgr8</t>
+          <t>P4hGKsLaKfk</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Microsoft CEO’s Shocking Prediction: “Ag</t>
+          <t>The Industry Reacts to OpenAI's Deep Res</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>966957</v>
+        <v>131076</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0:11:20</t>
+          <t>0:13:04</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -588,25 +588,25 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>bOsvI3HYHgI</t>
+          <t>i9s4fqhSvz8</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DeepSeek R1 Fully Tested - Insane Perfor</t>
+          <t>The Industry Reacts to OpenAI Operator -</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-01-25</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>901776</v>
+        <v>121749</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0:15:10</t>
+          <t>0:14:55</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -618,25 +618,25 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IurALhiB6Ko</t>
+          <t>IMXRpbxifq8</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NVIDIA Unveils "NIMS" Digital Humans, Ro</t>
+          <t>DeepSeek R1 Shocked The World - Reaction</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-06-05</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>830098</v>
+        <v>117424</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1:13:59</t>
+          <t>0:20:34</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -648,25 +648,25 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>X5adgxV0gBE</t>
+          <t>DPBmVecYNJo</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DeepSeek R1 - The Chinese AI "Side Proje</t>
+          <t>The Industry Reacts to o3 and o4!</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-01-27</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>779233</v>
+        <v>113498</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0:16:45</t>
+          <t>0:15:15</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -678,25 +678,25 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BntGOaMrB90</t>
+          <t>Ucpt95krD-Q</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fully Uncensored GPT Is Here 🚨 Use With </t>
+          <t>Claude 4 is really weird... (Industry Re</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>2025-05-24</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>730639</v>
+        <v>103380</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0:11:49</t>
+          <t>0:15:35</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -708,25 +708,25 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7PMUVqtXS0A</t>
+          <t>dKZTZ1icylQ</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Former Google CEO Spills ALL! (Google AI</t>
+          <t>The Industry Reacts to Llama 4 - "Nearly</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-08-18</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>655998</v>
+        <v>99676</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0:44:45</t>
+          <t>0:18:23</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -738,25 +738,25 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ZYf9V2fSFwU</t>
+          <t>pN4IQ9FVTXM</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">AI Pioneer Shows The Power of AI AGENTS </t>
+          <t>The Industry Reacts to o3-Pro! (It Think</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2024-03-29</t>
+          <t>2025-06-12</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>638214</v>
+        <v>84262</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0:23:47</t>
+          <t>0:12:33</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">

--- a/Excel/matthew_berman.xlsx
+++ b/Excel/matthew_berman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,25 +468,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>G1GuDyy9bTo</t>
+          <t>YWwS911iLhg</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>The Industry Reacts to DeepSeek R1 - "Be</t>
+          <t xml:space="preserve">Vibe Coding Tutorial and Best Practices </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>255901</v>
+        <v>265512</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0:08:53</t>
+          <t>0:21:48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -498,25 +498,25 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NFgFQO282_4</t>
+          <t>v7UcVPO4y3c</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The World Reacts to OpenAI's Unveiling o</t>
+          <t>Vibe Coding Complete Tutorial and Tips -</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>216021</v>
+        <v>149029</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0:21:02</t>
+          <t>0:29:16</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -528,25 +528,25 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ZwW0RLdPVsU</t>
+          <t>GwlRyItIopc</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The Industry Reacts to Grok 4!</t>
+          <t>Sam Altman Teases Orion (GPT-5), Noteboo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-07-13</t>
+          <t>2024-09-17</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>200515</v>
+        <v>103239</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0:15:23</t>
+          <t>0:18:09</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -558,25 +558,25 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>P4hGKsLaKfk</t>
+          <t>GTJlUs61s1U</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The Industry Reacts to OpenAI's Deep Res</t>
+          <t>AI News: OpenAI Releases Agents, New NVI</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2024-10-19</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>131076</v>
+        <v>96067</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0:13:04</t>
+          <t>0:23:29</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -588,178 +588,28 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>i9s4fqhSvz8</t>
+          <t>c5y8NX3yUNE</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The Industry Reacts to OpenAI Operator -</t>
+          <t xml:space="preserve">Doom Powered Entirely by AI, Cursor AI, </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-01-25</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>121749</v>
+        <v>72374</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0:14:55</t>
+          <t>0:18:37</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>IMXRpbxifq8</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>DeepSeek R1 Shocked The World - Reaction</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2025-01-28</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>117424</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0:20:34</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>DPBmVecYNJo</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>The Industry Reacts to o3 and o4!</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2025-04-19</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>113498</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0:15:15</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Ucpt95krD-Q</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Claude 4 is really weird... (Industry Re</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2025-05-24</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>103380</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0:15:35</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>dKZTZ1icylQ</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>The Industry Reacts to Llama 4 - "Nearly</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2025-04-07</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>99676</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0:18:23</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>pN4IQ9FVTXM</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>The Industry Reacts to o3-Pro! (It Think</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2025-06-12</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>84262</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0:12:33</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
         <is>
           <t>N</t>
         </is>
